--- a/Data/安聯台灣科技基金持股.xlsx
+++ b/Data/安聯台灣科技基金持股.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintus/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintus/Nan_Shan_11-7/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B0ED41-2232-834C-BD94-6B06936C2DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9010F313-16B6-B94A-87E4-B96B30719397}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14940" yWindow="460" windowWidth="13480" windowHeight="17040" xr2:uid="{3A2A8C40-4F2E-8846-A75C-5F19237B28D0}"/>
   </bookViews>
@@ -395,9 +395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D6770-DA06-FC48-A637-BDB8EF7DAB0D}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
@@ -438,10 +440,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3529</v>
+        <v>2337</v>
       </c>
       <c r="B4">
-        <v>0.13106134371957157</v>
+        <v>0.10925024342745862</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -450,10 +452,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6462</v>
+        <v>2458</v>
       </c>
       <c r="B5">
-        <v>0.12580331061343722</v>
+        <v>7.8286270691333995E-2</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -462,10 +464,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>2337</v>
+        <v>3034</v>
       </c>
       <c r="B6">
-        <v>0.10925024342745862</v>
+        <v>7.3807205452775082E-2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -474,10 +476,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2458</v>
+        <v>2379</v>
       </c>
       <c r="B7">
-        <v>7.8286270691333995E-2</v>
+        <v>7.0496592015579368E-2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -486,47 +488,27 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6411</v>
+        <v>2330</v>
       </c>
       <c r="B8">
-        <v>7.5559883154819873E-2</v>
+        <v>6.9522882181110038E-2</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>3034</v>
-      </c>
-      <c r="B9">
-        <v>7.3807205452775082E-2</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>2379</v>
-      </c>
-      <c r="B10">
-        <v>7.0496592015579368E-2</v>
-      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>2330</v>
-      </c>
-      <c r="B11">
-        <v>6.9522882181110038E-2</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
